--- a/backend/data/ilocos_chatbot_dataset.xlsx
+++ b/backend/data/ilocos_chatbot_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI\tourism-chatbot-mobile\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1E6DC2-84C9-473D-B803-AAA4359A601C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB69DB0-F11E-4F4F-A803-10979709EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,15 +289,9 @@
     <t>CU10</t>
   </si>
   <si>
-    <t>Tinuno (grilled pork/fish)</t>
-  </si>
-  <si>
     <t>Currimao, Ilocos Norte</t>
   </si>
   <si>
-    <t>grill, smoky</t>
-  </si>
-  <si>
     <t>Freshly grilled pork/fish, common in beach towns and seaside eateries</t>
   </si>
   <si>
@@ -830,6 +824,12 @@
   </si>
   <si>
     <t>museo_luna</t>
+  </si>
+  <si>
+    <t>Tinuno</t>
+  </si>
+  <si>
+    <t>grill, smoky, tinuno</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1153,10 +1153,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -1165,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
@@ -1185,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1197,7 +1197,7 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1229,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>29</v>
@@ -1249,7 +1249,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>35</v>
@@ -1261,7 +1261,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>38</v>
@@ -1293,7 +1293,7 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>44</v>
@@ -1325,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>40</v>
@@ -1357,7 +1357,7 @@
         <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>54</v>
@@ -1389,7 +1389,7 @@
         <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>60</v>
@@ -1421,7 +1421,7 @@
         <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>67</v>
@@ -1453,7 +1453,7 @@
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>72</v>
@@ -1514,7 +1514,7 @@
         <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>85</v>
@@ -1528,60 +1528,60 @@
         <v>86</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H14" t="s">
-        <v>258</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>30</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -1601,19 +1601,19 @@
         <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>30</v>
@@ -1621,31 +1621,31 @@
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>30</v>
@@ -1653,31 +1653,31 @@
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>34</v>
@@ -1685,31 +1685,31 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>25</v>
@@ -1717,74 +1717,74 @@
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>33</v>
@@ -1793,19 +1793,19 @@
         <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>30</v>
@@ -1813,10 +1813,10 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>33</v>
@@ -1825,83 +1825,83 @@
         <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" t="s">
+        <v>253</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H23" t="s">
-        <v>255</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>25</v>
@@ -1909,28 +1909,28 @@
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>24</v>
@@ -1941,10 +1941,10 @@
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
@@ -1953,19 +1953,19 @@
         <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>30</v>
@@ -1973,63 +1973,63 @@
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>12</v>
@@ -2037,31 +2037,31 @@
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>18</v>
@@ -2069,31 +2069,31 @@
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="H31" t="s">
+        <v>262</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>25</v>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -2113,19 +2113,19 @@
         <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>30</v>
@@ -2133,66 +2133,66 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" t="s">
+        <v>264</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="H33" t="s">
-        <v>266</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" t="s">
+        <v>265</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="H34" t="s">
-        <v>267</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3180,28 +3180,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3215,7 +3215,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E2" s="1">
         <v>60</v>
@@ -3224,10 +3224,10 @@
         <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3241,7 +3241,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E3" s="1">
         <v>50</v>
@@ -3250,10 +3250,10 @@
         <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3267,7 +3267,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="1">
         <v>50</v>
@@ -3276,10 +3276,10 @@
         <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3293,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -3302,10 +3302,10 @@
         <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3319,7 +3319,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E6" s="1">
         <v>15</v>
@@ -3328,10 +3328,10 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3345,7 +3345,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -3354,10 +3354,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3371,7 +3371,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -3380,10 +3380,10 @@
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -3406,10 +3406,10 @@
         <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
